--- a/data/MPA_coordinates_no_deg_updated.xlsx
+++ b/data/MPA_coordinates_no_deg_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90DDAFD-BEEB-4B10-8CFF-25D71AF3AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9FC4A-8BA0-4216-BAB4-4FD85240D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
+    <workbookView xWindow="-8" yWindow="0" windowWidth="11041" windowHeight="14925" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CE$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,6 +43,7 @@
   <authors>
     <author>tc={8ED04F3E-F3FE-4FA5-94B7-21DC4F1704E0}</author>
     <author>tc={591F8D3D-128C-4A04-872B-9A68A6F9FC1F}</author>
+    <author>Rebecca Ruiz</author>
   </authors>
   <commentList>
     <comment ref="G140" authorId="0" shapeId="0" xr:uid="{8ED04F3E-F3FE-4FA5-94B7-21DC4F1704E0}">
@@ -60,12 +62,60 @@
     http://www.database.mpasupportnetwork.com/</t>
       </text>
     </comment>
+    <comment ref="B297" authorId="2" shapeId="0" xr:uid="{59685270-B4D0-4C66-9795-7599E734F56A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rebecca Ruiz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10.00000 deg N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C311" authorId="2" shapeId="0" xr:uid="{7882CDD7-0CFF-4FD1-9BA2-9085D3E16492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rebecca Ruiz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Visayas MPA directory says 134.26880. Unlikely as all stations before and after are 124.______...</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="772">
   <si>
     <t>Name</t>
   </si>
@@ -1387,9 +1437,6 @@
     <t>Banacon Island Marine Sanctuary</t>
   </si>
   <si>
-    <t>Libaong (Handumon) Marine Sanctuary</t>
-  </si>
-  <si>
     <t>Western Cabul-an Marine Sanctuary</t>
   </si>
   <si>
@@ -1637,19 +1684,779 @@
   </si>
   <si>
     <t>Cebu Strait, Bohol</t>
+  </si>
+  <si>
+    <t>Bool, Tagbilaran City, Bool</t>
+  </si>
+  <si>
+    <t>Liboron, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing, patch, shoal), mangrove, seagrass, softbottom</t>
+  </si>
+  <si>
+    <t>Lomboy-Kahayag, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), seagrass</t>
+  </si>
+  <si>
+    <t>Magtongtong, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Talisay, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch) with muddy substrate; mangrove</t>
+  </si>
+  <si>
+    <t>Manga, Tagbilaran City</t>
+  </si>
+  <si>
+    <t>Mantatao, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, algal beds, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Pamilacan, Baclayon, Bohol</t>
+  </si>
+  <si>
+    <t>Pantudlan Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Pantudlan, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing), seagrass beds</t>
+  </si>
+  <si>
+    <t>Pig-ot Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pig-ot, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Pondol, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Tangnan, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef with macro-algal and seagrass beds, and soft bottom</t>
+  </si>
+  <si>
+    <t>Sondol Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sondol, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Song-on, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing) with seagrass beds</t>
+  </si>
+  <si>
+    <t>Sta. Cruz, Calape, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, macro-algal bed, mangrove, rocky intertidal, soft bottom</t>
+  </si>
+  <si>
+    <t>Tabalong, Dauis, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patchy), seagrass beds, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Tawala Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Ubayon Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tawala, Panglao, Bohol</t>
+  </si>
+  <si>
+    <t>Ubayon, Loon, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass</t>
+  </si>
+  <si>
+    <t>Asinan, Buenavista, Bohol</t>
+  </si>
+  <si>
+    <t>Banacon Is., Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, open water, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Batasan Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Batasan, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (offshore) mangroves (30 ha.) surround the island</t>
+  </si>
+  <si>
+    <t>Bilang-bilangan Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Bilang-bilangan, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, mangrove</t>
+  </si>
+  <si>
+    <t>Bonbon Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Bonbon, Clarin, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass bed, soft bottom</t>
+  </si>
+  <si>
+    <t>Cabulijan, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Cagawasan Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Cagawasan, Inabanga, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass beds, rocky intertidal, shoal coral reef</t>
+  </si>
+  <si>
+    <t>Calituban Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Calituban Islet, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Campao Occidental, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Canlawron Marine Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Canlawron, Alumar, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Cataban Islet, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Poblacion, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Corte-Baud Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Corte-Baud, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), open water, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Eastern Cabul-an, Buenavista, Bohol</t>
+  </si>
+  <si>
+    <t>Guindacpan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Guindacpan, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Hambongan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Hambongan, Inabanga, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), rocky intertidal</t>
+  </si>
+  <si>
+    <t>Liba-ong (Handumon) Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Handumon, Jandayan Is., Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing), seagrass, mangrove</t>
+  </si>
+  <si>
+    <t>Jagoliao, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Jandayan Norte Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Jandayan Norte, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Jandayan Sur Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Jandayan Sur, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Lajog Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Lajog, Clarin, Bohol</t>
+  </si>
+  <si>
+    <t>Lawis Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Lawis, Inabanga, Bohol</t>
+  </si>
+  <si>
+    <t>Macaas Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cabgan Islet, Macaas, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef with muddy-sandy substrate</t>
+  </si>
+  <si>
+    <t>Mahaba Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Majigpit Islet, Clarin, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, sandy bottom, seagrass, open water</t>
+  </si>
+  <si>
+    <t>Maomawan, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, open water, seagrass bed</t>
+  </si>
+  <si>
+    <t>Nahawan, Clarin, Bohol</t>
+  </si>
+  <si>
+    <t>Soft bottom, seagrass</t>
+  </si>
+  <si>
+    <t>Nasingin Is., Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, algal bed, deepwater</t>
+  </si>
+  <si>
+    <t>Nocnocan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Ondol Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Ondol, Inabanga, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass beds</t>
+  </si>
+  <si>
+    <t>Pandanon Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing), seagrass bed</t>
+  </si>
+  <si>
+    <t>Pangapasan Island Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Pangapasan, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, openwater, rocky intertidal, seagrass beds</t>
+  </si>
+  <si>
+    <t>Poblacion Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Poblacion, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Sag Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sag Islet, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Sagasa, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>San Francisco Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>San Francisco, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, macro-algal bed, sandy bottom, seagrass bed</t>
+  </si>
+  <si>
+    <t>Sto. Niño Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sto. Niño Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Sto. Niño, Inabanga, Bohol</t>
+  </si>
+  <si>
+    <t>Tangaran, Clarin, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass bed</t>
+  </si>
+  <si>
+    <t>Tanghaligue, Talibon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), Seagrass, algal beds, rocky intertidal, sandy bottom</t>
+  </si>
+  <si>
+    <t>Tugas Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tugas, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), rocky intertidal, open water</t>
+  </si>
+  <si>
+    <t>Tulang, Getafe, Bohol</t>
+  </si>
+  <si>
+    <t>Ubay, Tubigon, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, deep water</t>
+  </si>
+  <si>
+    <t>Cabul-an Is., Buenavista, Bohol</t>
+  </si>
+  <si>
+    <t>Aguining, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (narrow, fringing) with seagrass beds</t>
+  </si>
+  <si>
+    <t>Anda, Bohol</t>
+  </si>
+  <si>
+    <t>Bantiguian Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Basiao Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Coral reef, mangrove, seagrass</t>
+  </si>
+  <si>
+    <t>Bilang-bilangan East, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), open water, seagrass, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Bilang-Bilangan West Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bilang-bilangan West, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), seagrass, rocky intertidal</t>
+  </si>
+  <si>
+    <t>Bonbonon Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bonbonon, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Campamanog Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Canmangao Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Gaus I Marine sanctuary</t>
+  </si>
+  <si>
+    <t>Gaus Is., Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Hinongatan East Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Hinongatan West Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Hinongatan East, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Hinongatan Wast, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Ubay, Bohol</t>
+  </si>
+  <si>
+    <t>Kabangkalan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Poong Gamay Islet, Lapinin, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Predominantly coral reef with seagrasses and soft/muddy bottom; patches of mangroves</t>
+  </si>
+  <si>
+    <t>Liberty Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Liberty, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass, soft bottom, open water</t>
+  </si>
+  <si>
+    <t>Linawan, Anda, Bohol</t>
+  </si>
+  <si>
+    <t>Baybayon, Mabini, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), seagrass, macro-algal beds, open water</t>
+  </si>
+  <si>
+    <t>Malinguin Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Malinguin, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Mandawa, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Seagrass, open water</t>
+  </si>
+  <si>
+    <t>Panas, Candijay, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing) with seagrass, sandy-silty substrates</t>
+  </si>
+  <si>
+    <t>Penamgo Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Fringing coral reef with sandy bottom and seagrass beds</t>
+  </si>
+  <si>
+    <t>Poblacion, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Poong-Garcia Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Popoo (Datag) Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Popoo, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass bed</t>
+  </si>
+  <si>
+    <t>Sibukawan, Ubay, Bohol</t>
+  </si>
+  <si>
+    <t>Mangroves, algal bed</t>
+  </si>
+  <si>
+    <t>Sidlakan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Saguese, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Sinandigan, Ubay, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, mangroves</t>
+  </si>
+  <si>
+    <t>Sto. Rosario Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Suba Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Tubaran Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tuburan, Bien Unido, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (Barrier type) with seagrass beds and sandy bottom</t>
+  </si>
+  <si>
+    <t>Villa Milagrosa, Carlos P. Garcia, Bohol</t>
+  </si>
+  <si>
+    <t>Alejawan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Alejawan, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch/offshore), seagrass bed</t>
+  </si>
+  <si>
+    <t>Anas, Valencia, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing) with seagrass, algal beds, rocky intertidal, open water</t>
+  </si>
+  <si>
+    <t>Basdio, Guindulman, Bohol</t>
+  </si>
+  <si>
+    <t>Guinacot, Guindulman, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing), rocky intertidal</t>
+  </si>
+  <si>
+    <t>Cabantian, Guindulman, Bohol</t>
+  </si>
+  <si>
+    <t>Bonkokan Ubos Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bonkokan Ubos, Lila, Bohol</t>
+  </si>
+  <si>
+    <t>Bunga Mar Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bunga Mar, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, algal beds</t>
+  </si>
+  <si>
+    <t>Cantagay, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canuba Marine Sanctuary </t>
+  </si>
+  <si>
+    <t>Can-uba, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Catugasan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Catugasan, Lila, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch)</t>
+  </si>
+  <si>
+    <t>Garcia-Hernandez, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing/offshore/shoal), seagrass, soft bottom</t>
+  </si>
+  <si>
+    <t>Guinsularan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Guinsularan, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>4,09</t>
+  </si>
+  <si>
+    <t>Ipil Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Ipil, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Itum Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Itim, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (offshore/patch)</t>
+  </si>
+  <si>
+    <t>Langkis, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Mawi, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (offshore)</t>
+  </si>
+  <si>
+    <t>Larapan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Larapan, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass, macro-algal beds, open water</t>
+  </si>
+  <si>
+    <t>Las Salinas Sur Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Las Salinas, Loay, Bohol</t>
+  </si>
+  <si>
+    <t>Madua Norte Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Madua Sur Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Madua Norte, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Madua Sur, Duero, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (shoal), seagrass</t>
+  </si>
+  <si>
+    <t>Coral reef, seagrass bed, rocky intertidal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naatang Marine Sanctuary </t>
+  </si>
+  <si>
+    <t>Naatang, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Nagsulay Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Nagsulay, Lila, Bohol</t>
+  </si>
+  <si>
+    <t>Nausok Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Nausok, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, macro-algal beds</t>
+  </si>
+  <si>
+    <t>Pangdan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pangdan, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral reef with algal beds, open water </t>
+  </si>
+  <si>
+    <t>Pulang Yuta, Dimiao, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (patch), seagrass beds</t>
+  </si>
+  <si>
+    <t>Taongon-Canandam Fishery Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Taongon/Can-andam, Dimiao, Bohol</t>
+  </si>
+  <si>
+    <t>Taug and Tiguis, Lila, Bohol</t>
+  </si>
+  <si>
+    <t>Tayong Occidental, Loay, Bohol</t>
+  </si>
+  <si>
+    <t>Tayong, Oriental, Loay, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (offshore) with seagrass beds, rocky intertidal, open water</t>
+  </si>
+  <si>
+    <t>Tubod Mar, Jagna, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (fringing), rocky intertidal, open water</t>
+  </si>
+  <si>
+    <t>Alburquerque, Loay, Loboc, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef (narrow, fringing), seagrass, mangrove</t>
+  </si>
+  <si>
+    <t>Coral reef, rocky intertidal, rubble</t>
+  </si>
+  <si>
+    <t>Panglao, Bohol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1707,7 +2514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1773,6 +2580,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2085,7 +2896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2104,11 +2915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
-  <dimension ref="A1:CE279"/>
+  <dimension ref="A1:CE346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2119,7 +2930,7 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
     <col min="6" max="6" width="14.46484375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="2"/>
+    <col min="7" max="7" width="9.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -5541,7 +6352,7 @@
         <v>120.7</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -5570,7 +6381,7 @@
         <v>120.67</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E117" t="s">
         <v>309</v>
@@ -5599,7 +6410,7 @@
         <v>120.87</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -5628,7 +6439,7 @@
         <v>120.87</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -5657,7 +6468,7 @@
         <v>120.89</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -5686,7 +6497,7 @@
         <v>120.89</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -5715,7 +6526,7 @@
         <v>120.99</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5727,7 +6538,7 @@
         <v>4828</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I122" t="s">
         <v>305</v>
@@ -5744,7 +6555,7 @@
         <v>121.04</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -5773,7 +6584,7 @@
         <v>121.1</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -5802,7 +6613,7 @@
         <v>120.76</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E125" t="s">
         <v>309</v>
@@ -5831,7 +6642,7 @@
         <v>120.66800000000001</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E126" t="s">
         <v>309</v>
@@ -5883,7 +6694,7 @@
         <v>123.77</v>
       </c>
       <c r="D128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5895,7 +6706,7 @@
         <v>203.2</v>
       </c>
       <c r="H128" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I128" t="s">
         <v>305</v>
@@ -5912,7 +6723,7 @@
         <v>120.07</v>
       </c>
       <c r="D129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E129" t="s">
         <v>309</v>
@@ -5924,7 +6735,7 @@
         <v>64</v>
       </c>
       <c r="H129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I129" t="s">
         <v>305</v>
@@ -5941,7 +6752,7 @@
         <v>120.23</v>
       </c>
       <c r="D130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -5953,7 +6764,7 @@
         <v>52</v>
       </c>
       <c r="H130" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I130" t="s">
         <v>305</v>
@@ -5964,13 +6775,13 @@
         <v>323</v>
       </c>
       <c r="B131" s="13">
-        <v>10.11</v>
+        <v>10.11631</v>
       </c>
       <c r="C131" s="13">
-        <v>123.98</v>
+        <v>123.98860000000001</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>309</v>
@@ -7446,7 +8257,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B185">
         <v>8.8589579999999994</v>
@@ -7461,32 +8272,34 @@
         <v>960.26499999999999</v>
       </c>
       <c r="H185" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I185" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>509</v>
-      </c>
-      <c r="B186">
+      <c r="A186" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" s="13">
         <v>8.7461110000000009</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="13">
         <v>123.23</v>
       </c>
-      <c r="F186" s="5">
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="14">
         <v>1999</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="13">
         <v>1187.51</v>
       </c>
-      <c r="H186" t="s">
-        <v>507</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="H186" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I186" s="13" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7510,1505 +8323,4324 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A188" s="26" t="s">
+      <c r="A188" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="30">
         <v>9.4936640000000008</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="30">
         <v>123.9145</v>
       </c>
-      <c r="D188" s="26"/>
+      <c r="D188" s="29" t="s">
+        <v>534</v>
+      </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="26">
+      <c r="F188" s="29">
         <v>1986</v>
       </c>
-      <c r="G188" s="26">
+      <c r="G188" s="29">
         <v>11.9</v>
       </c>
-      <c r="H188" t="s">
-        <v>416</v>
-      </c>
-      <c r="I188" t="s">
+      <c r="H188" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I188" s="30" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+      <c r="A189" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B189" s="30">
+        <v>9.8902800000000006</v>
+      </c>
+      <c r="C189" s="30">
+        <v>123.80146999999999</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F189" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G189" s="29">
+        <v>10.32</v>
+      </c>
+      <c r="H189" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I189" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A190" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="B190" s="30">
+        <v>9.8894599999999997</v>
+      </c>
+      <c r="C190" s="30">
+        <v>123.75314</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F190" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G190" s="29">
+        <v>10</v>
+      </c>
+      <c r="H190" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I190" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A191" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B189">
+      <c r="B191" s="30">
         <v>9.5159000000000002</v>
       </c>
-      <c r="C189">
+      <c r="C191" s="30">
         <v>123.6797</v>
       </c>
-      <c r="F189" s="5">
+      <c r="D191" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="E191" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F191" s="5">
         <v>1999</v>
       </c>
-      <c r="G189">
+      <c r="G191" s="30">
         <v>3.44</v>
       </c>
-      <c r="H189" t="s">
-        <v>416</v>
-      </c>
-      <c r="I189" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A190" s="26" t="s">
+      <c r="H191" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I191" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A192" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="26">
+      <c r="B192" s="30">
+        <v>10.200521</v>
+      </c>
+      <c r="C192" s="30">
+        <v>124.2916</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E192" s="29"/>
+      <c r="F192" s="29">
         <v>1998</v>
       </c>
-      <c r="G190" s="26">
+      <c r="G192" s="29">
         <v>6456.87</v>
       </c>
-      <c r="H190" t="s">
-        <v>416</v>
-      </c>
-      <c r="I190" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A191" s="26" t="s">
+      <c r="H192" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I192" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="26">
+      <c r="B193" s="30">
+        <v>9.6777999999999995</v>
+      </c>
+      <c r="C193" s="30">
+        <v>123.9358</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="E193" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="F193" s="29">
         <v>2000</v>
       </c>
-      <c r="G191" s="26">
+      <c r="G193" s="29">
         <v>1164.1600000000001</v>
       </c>
-      <c r="H191" t="s">
-        <v>416</v>
-      </c>
-      <c r="I191" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A192" s="26" t="s">
+      <c r="H193" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I193" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B192">
+      <c r="B194" s="30">
         <v>9.5577249999999996</v>
       </c>
-      <c r="C192">
+      <c r="C194" s="30">
         <v>123.72377299999999</v>
       </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26">
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29">
         <v>2003</v>
       </c>
-      <c r="G192" s="26">
+      <c r="G194" s="29">
         <v>385.67</v>
       </c>
-      <c r="H192" t="s">
-        <v>416</v>
-      </c>
-      <c r="I192" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A193" s="26" t="s">
+      <c r="H194" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I194" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A195" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26">
+      <c r="B195" s="30">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C195" s="30">
+        <v>124.58333</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="E195" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="F195" s="29">
         <v>2004</v>
       </c>
-      <c r="G193" s="26">
+      <c r="G195" s="29">
         <v>245.38</v>
       </c>
-      <c r="H193" t="s">
-        <v>416</v>
-      </c>
-      <c r="I193" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A194" s="26" t="s">
+      <c r="H195" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I195" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A196" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26">
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="29">
         <v>1989</v>
       </c>
-      <c r="G194" s="26">
+      <c r="G196" s="29">
         <v>210</v>
       </c>
-      <c r="H194" t="s">
-        <v>416</v>
-      </c>
-      <c r="I194" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A195" s="26" t="s">
+      <c r="H196" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I196" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A197" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26">
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29">
         <v>0</v>
       </c>
-      <c r="G195" s="26">
+      <c r="G197" s="29">
         <v>210</v>
       </c>
-      <c r="H195" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A196" s="26" t="s">
+      <c r="H197" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A198" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B198" s="30">
+        <v>10.014099999999999</v>
+      </c>
+      <c r="C198" s="30">
+        <v>123.97658</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="F198" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G198" s="29">
+        <v>21</v>
+      </c>
+      <c r="H198" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I198" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A199" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26">
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="29">
         <v>1999</v>
       </c>
-      <c r="G196" s="26">
+      <c r="G199" s="29">
         <v>209.93</v>
       </c>
-      <c r="H196" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A197" s="26" t="s">
+      <c r="H199" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A200" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26">
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="29">
         <v>1999</v>
       </c>
-      <c r="G197" s="26">
+      <c r="G200" s="29">
         <v>200</v>
       </c>
-      <c r="H197" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A198" s="26" t="s">
+      <c r="H200" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A201" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-      <c r="F198" s="26">
+      <c r="B201" s="30">
+        <v>10.09</v>
+      </c>
+      <c r="C201" s="30">
+        <v>124.57299999999999</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="29">
         <v>1993</v>
       </c>
-      <c r="G198" s="26">
+      <c r="G201" s="29">
         <v>200</v>
       </c>
-      <c r="H198" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A199" s="26" t="s">
+      <c r="H201" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I201" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A202" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-      <c r="F199" s="26">
+      <c r="B202" s="30">
+        <v>10.1767</v>
+      </c>
+      <c r="C202" s="30">
+        <v>124.425</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="E202" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="F202" s="29">
         <v>1997</v>
       </c>
-      <c r="G199" s="26">
+      <c r="G202" s="29">
         <v>127.9</v>
       </c>
-      <c r="H199" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A200" s="26" t="s">
+      <c r="H202" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I202" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A203" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26">
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="29">
         <v>2008</v>
       </c>
-      <c r="G200" s="26">
+      <c r="G203" s="29">
         <v>104.2</v>
       </c>
-      <c r="H200" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A201" s="26" t="s">
+      <c r="H203" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A204" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26">
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29"/>
+      <c r="F204" s="29">
         <v>2000</v>
       </c>
-      <c r="G201" s="26">
+      <c r="G204" s="29">
         <v>71.900000000000006</v>
       </c>
-      <c r="H201" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A202" s="26" t="s">
+      <c r="H204" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A205" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="B205" s="30">
+        <v>10.253299999999999</v>
+      </c>
+      <c r="C205" s="30">
+        <v>124.44159999999999</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E205" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F205" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G205" s="29">
+        <v>30</v>
+      </c>
+      <c r="H205" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I205" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A206" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="B206" s="30">
+        <v>9.9882000000000009</v>
+      </c>
+      <c r="C206" s="30">
+        <v>123.8783</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="E206" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="F206" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G206" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="H206" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I206" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A207" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26">
+      <c r="B207" s="30">
+        <v>10.101416</v>
+      </c>
+      <c r="C207" s="30">
+        <v>124.438138</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="E207" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="29">
         <v>0</v>
       </c>
-      <c r="G202" s="26">
+      <c r="G207" s="29">
         <v>71.2</v>
       </c>
-      <c r="H202" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A203" s="26" t="s">
+      <c r="H207" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I207" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26">
+      <c r="B208" s="30">
+        <v>9.7988599999999995</v>
+      </c>
+      <c r="C208" s="30">
+        <v>124.5933</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="E208" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="29">
         <v>1999</v>
       </c>
-      <c r="G203" s="26">
+      <c r="G208" s="29">
         <v>70</v>
       </c>
-      <c r="H203" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A204" s="26" t="s">
+      <c r="H208" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I208" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="F204" s="26">
+      <c r="B209" s="30">
+        <v>9.9055</v>
+      </c>
+      <c r="C209" s="30">
+        <v>123.8638</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="E209" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="F209" s="29">
         <v>2003</v>
       </c>
-      <c r="G204" s="26">
+      <c r="G209" s="29">
         <v>67.72</v>
       </c>
-      <c r="H204" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A205" s="26" t="s">
+      <c r="H209" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I209" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A210" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="26">
+      <c r="B210" s="30">
+        <v>10.13063</v>
+      </c>
+      <c r="C210" s="30">
+        <v>124.53636</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E210" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F210" s="29">
         <v>1986</v>
       </c>
-      <c r="G205" s="26">
+      <c r="G210" s="29">
         <v>60</v>
       </c>
-      <c r="H205" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A206" s="26" t="s">
+      <c r="H210" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I210" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A211" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26">
+      <c r="B211" s="30">
+        <v>10.201879999999999</v>
+      </c>
+      <c r="C211" s="30">
+        <v>124.25091</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E211" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211" s="29">
         <v>1997</v>
       </c>
-      <c r="G206" s="26">
+      <c r="G211" s="29">
         <v>59</v>
       </c>
-      <c r="H206" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A207" s="26" t="s">
+      <c r="H211" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I211" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A212" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
-      <c r="F207" s="26">
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29">
         <v>2011</v>
       </c>
-      <c r="G207" s="26">
+      <c r="G212" s="29">
         <v>52.6</v>
       </c>
-      <c r="H207" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="26" t="s">
+      <c r="H212" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A213" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26">
+      <c r="B213" s="30">
+        <v>10.087400000000001</v>
+      </c>
+      <c r="C213" s="30">
+        <v>124.595</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="E213" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="F213" s="29">
         <v>1993</v>
       </c>
-      <c r="G208" s="26">
+      <c r="G213" s="29">
         <v>52</v>
       </c>
-      <c r="H208" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A209" s="26" t="s">
+      <c r="H213" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I213" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A214" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-      <c r="F209" s="26">
+      <c r="B214" s="30">
+        <v>9.9352999999999998</v>
+      </c>
+      <c r="C214" s="30">
+        <v>123.8754</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="E214" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="F214" s="29">
         <v>2003</v>
       </c>
-      <c r="G209" s="26">
+      <c r="G214" s="29">
         <v>51.56</v>
       </c>
-      <c r="H209" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A210" s="26" t="s">
+      <c r="H214" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A215" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="B215" s="30">
+        <v>9.85</v>
+      </c>
+      <c r="C215" s="30">
+        <v>123.8</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E215" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F215" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G215" s="29">
+        <v>10</v>
+      </c>
+      <c r="H215" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A216" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26">
+      <c r="B216" s="30">
+        <v>10.16206</v>
+      </c>
+      <c r="C216" s="30">
+        <v>124.04429</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="E216" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="29">
         <v>2002</v>
       </c>
-      <c r="G210" s="26">
+      <c r="G216" s="29">
         <v>50</v>
       </c>
-      <c r="H210" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A211" s="26" t="s">
+      <c r="H216" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I216" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A217" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="26">
+      <c r="B217" s="30">
+        <v>10.194800000000001</v>
+      </c>
+      <c r="C217" s="30">
+        <v>124.183966</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E217" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="F217" s="29">
         <v>2002</v>
       </c>
-      <c r="G211" s="26">
+      <c r="G217" s="29">
         <v>50</v>
       </c>
-      <c r="H211" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A212" s="26" t="s">
+      <c r="H217" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I217" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A218" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="B218" s="30">
+        <v>10.172000000000001</v>
+      </c>
+      <c r="C218" s="30">
+        <v>124.1765</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="E218" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="F218" s="29">
+        <v>1995</v>
+      </c>
+      <c r="G218" s="29">
+        <v>50</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I218" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A219" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26">
+      <c r="B219" s="30">
+        <v>10.155099999999999</v>
+      </c>
+      <c r="C219" s="30">
+        <v>124.03335</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="E219" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F219" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G219" s="29">
+        <v>50</v>
+      </c>
+      <c r="H219" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I219" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A220" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" s="30">
+        <v>10.105972</v>
+      </c>
+      <c r="C220" s="30">
+        <v>124.090833</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E220" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F220" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G220" s="29">
+        <v>50</v>
+      </c>
+      <c r="H220" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A221" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" s="30">
+        <v>10.244999999999999</v>
+      </c>
+      <c r="C221" s="30">
+        <v>124.45829999999999</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E221" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="F221" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G221" s="29">
+        <v>44.8</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I221" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A222" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" s="30">
+        <v>10.15216</v>
+      </c>
+      <c r="C222" s="30">
+        <v>124.26756</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="E222" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="F222" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G222" s="29">
+        <v>43.9</v>
+      </c>
+      <c r="H222" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I222" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A223" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="30">
+        <v>9.8903800000000004</v>
+      </c>
+      <c r="C223" s="30">
+        <v>123.82328</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E223" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="F223" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G223" s="29">
+        <v>43.28</v>
+      </c>
+      <c r="H223" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A224" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29"/>
+      <c r="F224" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G224" s="29">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H224" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A225" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="30">
+        <v>10.44722</v>
+      </c>
+      <c r="C225" s="30">
+        <v>124.61111</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="E225" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G225" s="29">
+        <v>35</v>
+      </c>
+      <c r="H225" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I225" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A226" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" s="30">
+        <v>10.066940000000001</v>
+      </c>
+      <c r="C226" s="30">
+        <v>124.48583000000001</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="E226" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="F226" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G226" s="29">
+        <v>34</v>
+      </c>
+      <c r="H226" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I226" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A227" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" s="30">
+        <v>9.60398</v>
+      </c>
+      <c r="C227" s="30">
+        <v>124.27319</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="E227" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G227" s="29">
+        <v>33</v>
+      </c>
+      <c r="H227" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I227" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A228" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="B228" s="30">
+        <v>9.9360999999999997</v>
+      </c>
+      <c r="C228" s="30">
+        <v>123.84950000000001</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="E228" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F228" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G228" s="29">
+        <v>30.39</v>
+      </c>
+      <c r="H228" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A229" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229" s="30">
+        <v>10.174519999999999</v>
+      </c>
+      <c r="C229" s="30">
+        <v>124.11732000000001</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="E229" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F229" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G229" s="29">
+        <v>30</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I229" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A230" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29">
+        <v>0</v>
+      </c>
+      <c r="G230" s="29">
+        <v>29</v>
+      </c>
+      <c r="H230" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A231" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B231" s="30">
+        <v>9.7867200000000008</v>
+      </c>
+      <c r="C231" s="30">
+        <v>124.59514</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G231" s="29">
+        <v>28</v>
+      </c>
+      <c r="H231" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I231" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A232" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="B232" s="30">
+        <v>10.017300000000001</v>
+      </c>
+      <c r="C232" s="30">
+        <v>123.94833</v>
+      </c>
+      <c r="D232" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="29">
+        <v>2006</v>
+      </c>
+      <c r="G232" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="H232" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I232" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A233" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B233" s="30">
+        <v>9.5898400000000006</v>
+      </c>
+      <c r="C233" s="30">
+        <v>124.08110000000001</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="F233" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G233" s="29">
+        <v>26.7</v>
+      </c>
+      <c r="H233" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I233" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A234" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B234" s="30">
+        <v>9.94</v>
+      </c>
+      <c r="C234" s="30">
+        <v>124.57</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="E234" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="F234" s="29">
+        <v>1989</v>
+      </c>
+      <c r="G234" s="29">
+        <v>26.5</v>
+      </c>
+      <c r="H234" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I234" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A235" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B235" s="30">
+        <v>9.66859</v>
+      </c>
+      <c r="C235" s="30">
+        <v>124.40387</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E235" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="F235" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G235" s="29">
+        <v>26.22</v>
+      </c>
+      <c r="H235" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I235" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A236" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="B236" s="30">
+        <v>10.059609999999999</v>
+      </c>
+      <c r="C236" s="30">
+        <v>124.55343999999999</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E236" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="F236" s="29">
+        <v>1993</v>
+      </c>
+      <c r="G236" s="29">
+        <v>25</v>
+      </c>
+      <c r="H236" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I236" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A237" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B237" s="30">
+        <v>10.16469</v>
+      </c>
+      <c r="C237" s="30">
+        <v>124.50042000000001</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E237" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237" s="29">
+        <v>1993</v>
+      </c>
+      <c r="G237" s="29">
+        <v>25</v>
+      </c>
+      <c r="H237" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I237" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A238" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B238" s="30">
+        <v>10.1732</v>
+      </c>
+      <c r="C238" s="30">
+        <v>124.1652</v>
+      </c>
+      <c r="D238" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F238" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G238" s="29">
+        <v>25.21</v>
+      </c>
+      <c r="H238" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I238" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A239" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G239" s="29">
+        <v>24.86</v>
+      </c>
+      <c r="H239" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A240" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B240" s="30">
+        <v>10.1676</v>
+      </c>
+      <c r="C240" s="30">
+        <v>124.1566</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F240" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G240" s="29">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H240" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I240" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A241" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B241" s="30">
+        <v>9.5860000000000003</v>
+      </c>
+      <c r="C241" s="30">
+        <v>124.05719999999999</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F241" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G241" s="29">
+        <v>24</v>
+      </c>
+      <c r="H241" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I241" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A242" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="B242" s="30">
+        <v>9.9946999999999999</v>
+      </c>
+      <c r="C242" s="30">
+        <v>124.0047</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F242" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G242" s="29">
+        <v>23.61</v>
+      </c>
+      <c r="H242" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I242" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A243" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B243" s="30">
+        <v>9.7283000000000008</v>
+      </c>
+      <c r="C243" s="30">
+        <v>124.455</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="E243" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F243" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G243" s="29">
+        <v>22.22</v>
+      </c>
+      <c r="H243" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I243" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A244" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B244" s="30">
+        <v>9.6616999999999997</v>
+      </c>
+      <c r="C244" s="30">
+        <v>123.8417</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G244" s="29">
+        <v>22.2</v>
+      </c>
+      <c r="H244" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A245" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B245" s="30">
+        <v>9.8925000000000001</v>
+      </c>
+      <c r="C245" s="30">
+        <v>123.852</v>
+      </c>
+      <c r="D245" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="E245" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="F245" s="29">
+        <v>1996</v>
+      </c>
+      <c r="G245" s="29">
+        <v>22</v>
+      </c>
+      <c r="H245" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A246" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B246" s="30">
+        <v>9.7281399999999998</v>
+      </c>
+      <c r="C246" s="30">
+        <v>124.54222</v>
+      </c>
+      <c r="D246" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="E246" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="F246" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G246" s="29">
+        <v>21.79</v>
+      </c>
+      <c r="H246" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I246" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A247" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G247" s="29">
+        <v>21.7</v>
+      </c>
+      <c r="H247" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A248" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B248" s="30">
+        <v>9.7090300000000003</v>
+      </c>
+      <c r="C248" s="30">
+        <v>124.40655</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="E248" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="F248" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G248" s="29">
+        <v>21.56</v>
+      </c>
+      <c r="H248" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I248" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A249" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="29"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G249" s="29">
+        <v>21</v>
+      </c>
+      <c r="H249" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A250" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="29"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="29">
+        <v>2016</v>
+      </c>
+      <c r="G250" s="29">
+        <v>20.6</v>
+      </c>
+      <c r="H250" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A251" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G251" s="29">
+        <v>20</v>
+      </c>
+      <c r="H251" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A252" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
+      <c r="D252" s="29"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="29">
+        <v>1994</v>
+      </c>
+      <c r="G252" s="29">
+        <v>20</v>
+      </c>
+      <c r="H252" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A253" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B253" s="30">
+        <v>10.1617</v>
+      </c>
+      <c r="C253" s="30">
+        <v>124.4417</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E253" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="F253" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G253" s="29">
+        <v>20</v>
+      </c>
+      <c r="H253" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I253" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A254" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B254" s="30">
+        <v>10.211499999999999</v>
+      </c>
+      <c r="C254" s="30">
+        <v>124.1567</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E254" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="F254" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G254" s="29">
+        <v>20</v>
+      </c>
+      <c r="H254" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I254" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A255" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="B255" s="30">
+        <v>10.1416</v>
+      </c>
+      <c r="C255" s="30">
+        <v>124.3916</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="E255" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="F255" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G255" s="29">
+        <v>20</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I255" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A256" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B256" s="30">
+        <v>10.106999999999999</v>
+      </c>
+      <c r="C256" s="30">
+        <v>124.1262</v>
+      </c>
+      <c r="D256" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="E256" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G256" s="29">
+        <v>20</v>
+      </c>
+      <c r="H256" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I256" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A257" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B257" s="30">
+        <v>10.18647</v>
+      </c>
+      <c r="C257" s="30">
+        <v>124.19395</v>
+      </c>
+      <c r="D257" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E257" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="29">
+        <v>2005</v>
+      </c>
+      <c r="G257" s="29">
+        <v>10</v>
+      </c>
+      <c r="H257" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I257" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A258" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="29"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="29">
+        <v>2004</v>
+      </c>
+      <c r="G258" s="29">
+        <v>20</v>
+      </c>
+      <c r="H258" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I258" s="30"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A259" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="B259" s="30">
+        <v>9.7500999999999998</v>
+      </c>
+      <c r="C259" s="30">
+        <v>124.5849</v>
+      </c>
+      <c r="D259" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="E259" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" s="29">
+        <v>0</v>
+      </c>
+      <c r="G259" s="29">
+        <v>0</v>
+      </c>
+      <c r="H259" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I259" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A260" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G260" s="29">
+        <v>20</v>
+      </c>
+      <c r="H260" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I260" s="30"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A261" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B261" s="30">
+        <v>10.1843</v>
+      </c>
+      <c r="C261" s="30">
+        <v>124.0761</v>
+      </c>
+      <c r="D261" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="F261" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G261" s="29"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A262" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="B262" s="30">
+        <v>10.23536</v>
+      </c>
+      <c r="C262" s="30">
+        <v>124.39111</v>
+      </c>
+      <c r="D262" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E262" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="29">
+        <v>1996</v>
+      </c>
+      <c r="G262" s="29">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H262" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I262" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A263" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B263" s="30">
+        <v>9.9758399999999998</v>
+      </c>
+      <c r="C263" s="30">
+        <v>123.95817</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E263" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" s="29">
+        <v>2005</v>
+      </c>
+      <c r="G263" s="29">
+        <v>19</v>
+      </c>
+      <c r="H263" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I263" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A264" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="29">
+        <v>0</v>
+      </c>
+      <c r="G264" s="29">
+        <v>19</v>
+      </c>
+      <c r="H264" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A265" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="29"/>
+      <c r="F265" s="29">
+        <v>0</v>
+      </c>
+      <c r="G265" s="29">
+        <v>19</v>
+      </c>
+      <c r="H265" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A266" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="29"/>
+      <c r="E266" s="29"/>
+      <c r="F266" s="29">
+        <v>2005</v>
+      </c>
+      <c r="G266" s="29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H266" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I266" s="30"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A267" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B267" s="30">
+        <v>9.9108999999999998</v>
+      </c>
+      <c r="C267" s="30">
+        <v>123.81570000000001</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="E267" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" s="29">
+        <v>1996</v>
+      </c>
+      <c r="G267" s="29">
+        <v>18.62</v>
+      </c>
+      <c r="H267" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I267" s="30"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A268" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="B268" s="30">
+        <v>9.5982000000000003</v>
+      </c>
+      <c r="C268" s="30">
+        <v>124.1498</v>
+      </c>
+      <c r="D268" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="E268" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="F268" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G268" s="29">
+        <v>18.55</v>
+      </c>
+      <c r="H268" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I268" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A269" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B269" s="30">
+        <v>9.7446699999999993</v>
+      </c>
+      <c r="C269" s="30">
+        <v>124.49848</v>
+      </c>
+      <c r="D269" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F269" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G269" s="29">
+        <v>18.04</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I269" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A270" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B270" s="30">
+        <v>9.5902999999999992</v>
+      </c>
+      <c r="C270" s="30">
+        <v>124.0675</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="E270" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="F270" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G270" s="29">
+        <v>18</v>
+      </c>
+      <c r="H270" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I270" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A271" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B271" s="30">
+        <v>9.9638899999999992</v>
+      </c>
+      <c r="C271" s="30">
+        <v>124.63444</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="E271" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="F271" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G271" s="29">
+        <v>18</v>
+      </c>
+      <c r="H271" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I271" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A272" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B272" s="30">
+        <v>9.9103999999999992</v>
+      </c>
+      <c r="C272" s="30">
+        <v>123.8349</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="E272" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="F272" s="29">
         <v>1995</v>
       </c>
-      <c r="G212" s="26">
-        <v>50</v>
-      </c>
-      <c r="H212" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A213" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26">
+      <c r="G272" s="29">
+        <v>17.45</v>
+      </c>
+      <c r="H272" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I272" s="30"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A273" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="29"/>
+      <c r="E273" s="29"/>
+      <c r="F273" s="29">
+        <v>2007</v>
+      </c>
+      <c r="G273" s="29">
+        <v>17.39</v>
+      </c>
+      <c r="H273" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I273" s="30"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A274" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B274" s="30">
+        <v>9.6302000000000003</v>
+      </c>
+      <c r="C274" s="30">
+        <v>124.3582</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="E274" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G274" s="29">
+        <v>16.21</v>
+      </c>
+      <c r="H274" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I274" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A275" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B275" s="30">
+        <v>9.8902800000000006</v>
+      </c>
+      <c r="C275" s="30">
+        <v>123.80146999999999</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E275" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="29">
+        <v>0</v>
+      </c>
+      <c r="G275" s="29">
+        <v>16</v>
+      </c>
+      <c r="H275" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I275" s="30"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A276" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="29"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="29">
+        <v>0</v>
+      </c>
+      <c r="G276" s="29">
+        <v>16</v>
+      </c>
+      <c r="H276" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I276" s="30"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A277" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B277" s="30">
+        <v>9.7493999999999996</v>
+      </c>
+      <c r="C277" s="30">
+        <v>123.7872</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E277" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="F277" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G277" s="29">
+        <v>15.99</v>
+      </c>
+      <c r="H277" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I277" s="30"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A278" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B278" s="30">
+        <v>10.00278</v>
+      </c>
+      <c r="C278" s="30">
+        <v>124.05</v>
+      </c>
+      <c r="D278" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="E278" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F278" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G278" s="29">
+        <v>15.830299999999999</v>
+      </c>
+      <c r="H278" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I278" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A279" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B279" s="30">
+        <v>9.6029999999999998</v>
+      </c>
+      <c r="C279" s="30">
+        <v>124.2269</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="E279" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="F279" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G279" s="29">
+        <v>15.62</v>
+      </c>
+      <c r="H279" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I279" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A280" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B280" s="30">
+        <v>9.6378000000000004</v>
+      </c>
+      <c r="C280" s="30">
+        <v>123.81780000000001</v>
+      </c>
+      <c r="D280" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E280" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F280" s="29">
+        <v>2003</v>
+      </c>
+      <c r="G280" s="29">
+        <v>15.52</v>
+      </c>
+      <c r="H280" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I280" s="30"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A281" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B281" s="30">
+        <v>9.6934000000000005</v>
+      </c>
+      <c r="C281" s="30">
+        <v>123.85339999999999</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="E281" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" s="29">
+        <v>1997</v>
+      </c>
+      <c r="G281" s="29">
+        <v>15.45</v>
+      </c>
+      <c r="H281" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I281" s="30"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A282" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B282" s="30">
+        <v>10.31667</v>
+      </c>
+      <c r="C282" s="30">
+        <v>124.43333</v>
+      </c>
+      <c r="D282" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="E282" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="F282" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G282" s="29">
+        <v>15</v>
+      </c>
+      <c r="H282" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I282" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A283" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="B283" s="30">
+        <v>10.2033</v>
+      </c>
+      <c r="C283" s="30">
+        <v>124.41</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="E283" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F283" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G283" s="29">
+        <v>15</v>
+      </c>
+      <c r="H283" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I283" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A284" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B284" s="30">
+        <v>9.9666999999999994</v>
+      </c>
+      <c r="C284" s="30">
+        <v>123.98333</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="E284" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G284" s="29">
+        <v>15</v>
+      </c>
+      <c r="H284" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I284" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A285" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="29"/>
+      <c r="E285" s="29"/>
+      <c r="F285" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G285" s="29">
+        <v>14.25</v>
+      </c>
+      <c r="H285" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I285" s="30"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A286" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="29"/>
+      <c r="E286" s="29"/>
+      <c r="F286" s="29">
         <v>2000</v>
       </c>
-      <c r="G213" s="26">
-        <v>50</v>
-      </c>
-      <c r="H213" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A214" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="26">
+      <c r="G286" s="29">
+        <v>14.14</v>
+      </c>
+      <c r="H286" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I286" s="30"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A287" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="B287" s="30">
+        <v>10.07699</v>
+      </c>
+      <c r="C287" s="30">
+        <v>124.03525999999999</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E287" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G287" s="29">
+        <v>14.1</v>
+      </c>
+      <c r="H287" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I287" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A288" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29"/>
+      <c r="F288" s="29">
+        <v>1999</v>
+      </c>
+      <c r="G288" s="29">
+        <v>14.1</v>
+      </c>
+      <c r="H288" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I288" s="30"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A289" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="B289" s="30">
+        <v>9.7377000000000002</v>
+      </c>
+      <c r="C289" s="30">
+        <v>124.4616</v>
+      </c>
+      <c r="D289" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E289" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="F289" s="29">
+        <v>2002</v>
+      </c>
+      <c r="G289" s="29">
+        <v>13.7</v>
+      </c>
+      <c r="H289" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I289" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A290" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B290" s="30">
+        <v>9.8362800000000004</v>
+      </c>
+      <c r="C290" s="30">
+        <v>123.91285999999999</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E290" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="29">
         <v>2000</v>
       </c>
-      <c r="G214" s="26">
-        <v>50</v>
-      </c>
-      <c r="H214" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A215" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="26">
+      <c r="G290" s="29">
+        <v>13.42</v>
+      </c>
+      <c r="H290" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I290" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A291" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="B291" s="30">
+        <v>10.19319</v>
+      </c>
+      <c r="C291" s="30">
+        <v>124.56473</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E291" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" s="29">
+        <v>1993</v>
+      </c>
+      <c r="G291" s="29">
+        <v>0</v>
+      </c>
+      <c r="H291" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I291" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A292" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B292" s="30">
+        <v>10.19908</v>
+      </c>
+      <c r="C292" s="30">
+        <v>124.55885000000001</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E292" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" s="29">
+        <v>2006</v>
+      </c>
+      <c r="G292" s="29">
+        <v>13.3</v>
+      </c>
+      <c r="H292" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I292" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A293" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B293" s="30">
+        <v>9.9769500000000004</v>
+      </c>
+      <c r="C293" s="30">
+        <v>124.02321999999999</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="E293" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="F293" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G293" s="29">
+        <v>13</v>
+      </c>
+      <c r="H293" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I293" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A294" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="B294" s="30">
+        <v>9.5508000000000006</v>
+      </c>
+      <c r="C294" s="30">
+        <v>123.7761</v>
+      </c>
+      <c r="D294" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="E294" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="F294" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G294" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="H294" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I294" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A295" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="B295" s="30">
+        <v>9.8651099999999996</v>
+      </c>
+      <c r="C295" s="30">
+        <v>123.79317</v>
+      </c>
+      <c r="D295" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="E295" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F295" s="5">
         <v>2000</v>
       </c>
-      <c r="G215" s="26">
-        <v>44.8</v>
-      </c>
-      <c r="H215" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A216" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26">
+      <c r="G295" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H295" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I295" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A296" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="B296" s="30">
+        <v>9.9725000000000001</v>
+      </c>
+      <c r="C296" s="30">
+        <v>124.0133</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="E296" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="F296" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G296" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H296" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I296" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A297" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="B297" s="30">
+        <v>10</v>
+      </c>
+      <c r="C297" s="30">
+        <v>124.0425</v>
+      </c>
+      <c r="D297" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="E297" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="F297" s="5">
         <v>2000</v>
       </c>
-      <c r="G216" s="26">
-        <v>43.9</v>
-      </c>
-      <c r="H216" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A217" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26">
+      <c r="G297" s="2">
+        <v>21</v>
+      </c>
+      <c r="H297" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I297" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A298" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="B298" s="30">
+        <v>10.236140000000001</v>
+      </c>
+      <c r="C298" s="30">
+        <v>124.39111</v>
+      </c>
+      <c r="D298" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="E298" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" s="5">
+        <v>0</v>
+      </c>
+      <c r="G298" s="2">
+        <v>21</v>
+      </c>
+      <c r="H298" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I298" s="30"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A299" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="B299" s="30">
+        <v>10.1243</v>
+      </c>
+      <c r="C299" s="30">
+        <v>124.1309</v>
+      </c>
+      <c r="D299" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="E299" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F299" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G299" s="2">
+        <v>10</v>
+      </c>
+      <c r="H299" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I299" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A300" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B300" s="30">
+        <v>10.21679</v>
+      </c>
+      <c r="C300" s="30">
+        <v>124.26848</v>
+      </c>
+      <c r="D300" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="E300" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="F300" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G300" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H300" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I300" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A301" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="30">
+        <v>9.9741</v>
+      </c>
+      <c r="C301" s="30">
+        <v>124.0063</v>
+      </c>
+      <c r="D301" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E301" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F301" s="5">
         <v>1999</v>
       </c>
-      <c r="G217" s="26">
-        <v>43.28</v>
-      </c>
-      <c r="H217" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A218" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26">
+      <c r="G301" s="2">
+        <v>11.96</v>
+      </c>
+      <c r="H301" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I301" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A302" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="30">
+        <v>10.076000000000001</v>
+      </c>
+      <c r="C302" s="30">
+        <v>124.06100000000001</v>
+      </c>
+      <c r="D302" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="E302" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F302" s="5">
         <v>2000</v>
       </c>
-      <c r="G218" s="26">
+      <c r="G302" s="2">
+        <v>10</v>
+      </c>
+      <c r="H302" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I302" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A303" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" s="30">
+        <v>9.9685000000000006</v>
+      </c>
+      <c r="C303" s="30">
+        <v>123.99119</v>
+      </c>
+      <c r="D303" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="E303" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="F303" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G303" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H303" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I303" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A304" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" s="30">
+        <v>10.249919999999999</v>
+      </c>
+      <c r="C304" s="30">
+        <v>124.32003</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E304" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F304" s="5">
+        <v>0</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0</v>
+      </c>
+      <c r="H304" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I304" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A305" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="B305" s="30">
+        <v>10.24798</v>
+      </c>
+      <c r="C305" s="30">
+        <v>124.39897999999999</v>
+      </c>
+      <c r="D305" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E305" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="5">
+        <v>0</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0</v>
+      </c>
+      <c r="H305" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I305" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A306" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" s="30">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C306" s="30">
+        <v>124.05500000000001</v>
+      </c>
+      <c r="D306" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="E306" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F306" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G306" s="2">
+        <v>2</v>
+      </c>
+      <c r="H306" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I306" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A307" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="B307" s="30">
+        <v>9.9833999999999996</v>
+      </c>
+      <c r="C307" s="30">
+        <v>123.94</v>
+      </c>
+      <c r="D307" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="E307" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="F307" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G307" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="H307" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I307" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A308" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B308" s="30">
+        <v>10.19444</v>
+      </c>
+      <c r="C308" s="30">
+        <v>124.38333</v>
+      </c>
+      <c r="D308" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E308" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F308" s="5">
+        <v>0</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+      <c r="H308" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I308" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A309" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="B309" s="30">
+        <v>10.209580000000001</v>
+      </c>
+      <c r="C309" s="30">
+        <v>124.34622</v>
+      </c>
+      <c r="D309" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="E309" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F309" s="5">
+        <v>0</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0</v>
+      </c>
+      <c r="H309" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I309" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A310" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="B310" s="30">
+        <v>10.16794</v>
+      </c>
+      <c r="C310" s="30">
+        <v>124.31723</v>
+      </c>
+      <c r="D310" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="E310" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="F310" s="5">
+        <v>1996</v>
+      </c>
+      <c r="G310" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H310" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I310" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A311" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B311" s="30">
+        <v>10.167450000000001</v>
+      </c>
+      <c r="C311" s="30">
+        <v>124.2688</v>
+      </c>
+      <c r="D311" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E311" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F311" s="5">
+        <v>2001</v>
+      </c>
+      <c r="G311" s="2">
+        <v>12</v>
+      </c>
+      <c r="H311" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I311" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A312" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="B312" s="30">
+        <v>10.0761</v>
+      </c>
+      <c r="C312" s="30">
+        <v>124.0654</v>
+      </c>
+      <c r="D312" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="E312" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F312" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G312" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H312" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I312" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A313" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="B313" s="30">
+        <v>10.1364</v>
+      </c>
+      <c r="C313" s="30">
+        <v>124.1413</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="E313" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="F313" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G313" s="2">
+        <v>10</v>
+      </c>
+      <c r="H313" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I313" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A314" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B314" s="30">
+        <v>10.149229999999999</v>
+      </c>
+      <c r="C314" s="30">
+        <v>124.58257999999999</v>
+      </c>
+      <c r="D314" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E314" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F314" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G314" s="2">
+        <v>0</v>
+      </c>
+      <c r="H314" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I314" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A315" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="B315" s="30">
+        <v>10.068440000000001</v>
+      </c>
+      <c r="C315" s="30">
+        <v>124.5505</v>
+      </c>
+      <c r="D315" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E315" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+      <c r="H315" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I315" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A316" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B316" s="30">
+        <v>10.133100000000001</v>
+      </c>
+      <c r="C316" s="30">
+        <v>124.56971</v>
+      </c>
+      <c r="D316" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E316" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" s="5">
+        <v>2006</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+      <c r="H316" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I316" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A317" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="B317" s="30">
+        <v>10.119339999999999</v>
+      </c>
+      <c r="C317" s="30">
+        <v>124.51723</v>
+      </c>
+      <c r="D317" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E317" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F317" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+      <c r="H317" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I317" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A318" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="B318" s="30">
+        <v>10.09132</v>
+      </c>
+      <c r="C318" s="30">
+        <v>124.56869</v>
+      </c>
+      <c r="D318" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E318" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+      <c r="H318" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I318" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A319" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="B319" s="30">
+        <v>10.2416</v>
+      </c>
+      <c r="C319" s="30">
+        <v>124.485</v>
+      </c>
+      <c r="D319" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E319" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="F319" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G319" s="2">
+        <v>20</v>
+      </c>
+      <c r="H319" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I319" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A320" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="B320" s="30">
+        <v>10.2416</v>
+      </c>
+      <c r="C320" s="30">
+        <v>124.485</v>
+      </c>
+      <c r="D320" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="E320" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="F320" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G320" s="2">
+        <v>20</v>
+      </c>
+      <c r="H320" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I320" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A321" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="B321" s="30">
+        <v>10.26169</v>
+      </c>
+      <c r="C321" s="30">
+        <v>124.61792</v>
+      </c>
+      <c r="D321" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E321" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+      <c r="H321" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I321" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A322" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="B322" s="30">
+        <v>10.152290000000001</v>
+      </c>
+      <c r="C322" s="30">
+        <v>124.37676</v>
+      </c>
+      <c r="D322" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="E322" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="F322" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G322" s="2">
+        <v>8</v>
+      </c>
+      <c r="H322" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I322" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A323" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B323" s="30">
+        <v>10.193899999999999</v>
+      </c>
+      <c r="C323" s="30">
+        <v>124.3913</v>
+      </c>
+      <c r="D323" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E323" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="F323" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G323" s="2">
         <v>37.799999999999997</v>
       </c>
-      <c r="H218" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A219" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D219" s="26"/>
-      <c r="F219" s="26">
+      <c r="H323" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I323" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A324" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B324" s="30">
+        <v>10.216670000000001</v>
+      </c>
+      <c r="C324" s="30">
+        <v>124.4</v>
+      </c>
+      <c r="D324" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E324" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="F324" s="5">
+        <v>1986</v>
+      </c>
+      <c r="G324" s="2">
+        <v>24</v>
+      </c>
+      <c r="H324" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I324" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A325" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B325" s="30">
+        <v>10.143000000000001</v>
+      </c>
+      <c r="C325" s="30">
+        <v>124.574</v>
+      </c>
+      <c r="D325" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E325" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F325" s="5">
+        <v>2006</v>
+      </c>
+      <c r="G325" s="2">
+        <v>0</v>
+      </c>
+      <c r="H325" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I325" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A326" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B326" s="30">
+        <v>10.056380000000001</v>
+      </c>
+      <c r="C326" s="30">
+        <v>124.53148</v>
+      </c>
+      <c r="D326" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="E326" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="F326" s="5">
         <v>2003</v>
       </c>
-      <c r="G219" s="26">
-        <v>35</v>
-      </c>
-      <c r="H219" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A220" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="26">
+      <c r="G326" s="2">
+        <v>0</v>
+      </c>
+      <c r="H326" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I326" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A327" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B327" s="30">
+        <v>10.11833</v>
+      </c>
+      <c r="C327" s="30">
+        <v>124.59576</v>
+      </c>
+      <c r="D327" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E327" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F327" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G327" s="2">
+        <v>0</v>
+      </c>
+      <c r="H327" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I327" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A328" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B328" s="30">
+        <v>10.087999999999999</v>
+      </c>
+      <c r="C328" s="30">
+        <v>124.574</v>
+      </c>
+      <c r="D328" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E328" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G328" s="2">
+        <v>0</v>
+      </c>
+      <c r="H328" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I328" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A329" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B329" s="30">
+        <v>10.18333</v>
+      </c>
+      <c r="C329" s="30">
+        <v>124.52222</v>
+      </c>
+      <c r="D329" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E329" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="F329" s="5">
+        <v>0</v>
+      </c>
+      <c r="G329" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H329" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I329" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A330" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="B330" s="30">
+        <v>9.6832999999999991</v>
+      </c>
+      <c r="C330" s="30">
+        <v>124.4016</v>
+      </c>
+      <c r="D330" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="E330" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G330" s="2">
+        <v>10.67</v>
+      </c>
+      <c r="H330" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I330" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A331" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="B331" s="30">
+        <v>9.59</v>
+      </c>
+      <c r="C331" s="30">
+        <v>124.095</v>
+      </c>
+      <c r="D331" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="E331" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="F331" s="5">
+        <v>2001</v>
+      </c>
+      <c r="G331" s="2">
+        <v>1</v>
+      </c>
+      <c r="H331" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I331" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A332" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B332" s="30">
+        <v>9.6295000000000002</v>
+      </c>
+      <c r="C332" s="30">
+        <v>124.3528</v>
+      </c>
+      <c r="D332" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="E332" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="F332" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G332" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="H332" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I332" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A333" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="B333" s="30">
+        <v>9.6281499999999998</v>
+      </c>
+      <c r="C333" s="30">
+        <v>124.34332000000001</v>
+      </c>
+      <c r="D333" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="E333" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F333" s="5">
         <v>2002</v>
       </c>
-      <c r="G220" s="26">
-        <v>34</v>
-      </c>
-      <c r="H220" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A221" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="26">
+      <c r="G333" s="2">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="H333" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I333" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A334" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="B334" s="30">
+        <v>9.59</v>
+      </c>
+      <c r="C334" s="30">
+        <v>124.09</v>
+      </c>
+      <c r="D334" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="E334" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="F334" s="5">
         <v>2001</v>
       </c>
-      <c r="G221" s="26">
-        <v>33</v>
-      </c>
-      <c r="H221" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A222" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="26">
+      <c r="G334" s="2">
+        <v>1</v>
+      </c>
+      <c r="H334" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I334" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A335" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="B335" s="30">
+        <v>9.7222000000000008</v>
+      </c>
+      <c r="C335" s="30">
+        <v>124.4246</v>
+      </c>
+      <c r="D335" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E335" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F335" s="5">
         <v>2003</v>
       </c>
-      <c r="G222" s="26">
-        <v>30.39</v>
-      </c>
-      <c r="H222" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A223" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="26">
+      <c r="G335" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H335" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I335" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A336" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="B336" s="30">
+        <v>9.6295000000000002</v>
+      </c>
+      <c r="C336" s="30">
+        <v>124.3528</v>
+      </c>
+      <c r="D336" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="E336" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F336" s="5">
         <v>2002</v>
       </c>
-      <c r="G223" s="26">
-        <v>30</v>
-      </c>
-      <c r="H223" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A224" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="26">
+      <c r="G336" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="H336" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I336" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A337" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="B337" s="30">
+        <v>9.7133000000000003</v>
+      </c>
+      <c r="C337" s="30">
+        <v>124.4119</v>
+      </c>
+      <c r="D337" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="E337" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="F337" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G337" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="H337" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I337" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A338" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="B338" s="30">
+        <v>9.6535899999999994</v>
+      </c>
+      <c r="C338" s="30">
+        <v>124.3986</v>
+      </c>
+      <c r="D338" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="E338" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="F338" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G338" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="H338" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I338" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A339" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B339" s="30">
+        <v>9.5944900000000004</v>
+      </c>
+      <c r="C339" s="30">
+        <v>124.03973999999999</v>
+      </c>
+      <c r="D339" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="E339" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G339" s="2">
         <v>0</v>
       </c>
-      <c r="G224" s="26">
-        <v>29</v>
-      </c>
-      <c r="H224" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A225" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="26">
+      <c r="H339" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I339" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A340" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B340" s="30">
+        <v>9.7010900000000007</v>
+      </c>
+      <c r="C340" s="30">
+        <v>124.40488000000001</v>
+      </c>
+      <c r="D340" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="E340" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340" s="5">
         <v>1999</v>
       </c>
-      <c r="G225" s="26">
-        <v>28</v>
-      </c>
-      <c r="H225" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A226" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="26">
-        <v>2006</v>
-      </c>
-      <c r="G226" s="26">
-        <v>27.5</v>
-      </c>
-      <c r="H226" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A227" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-      <c r="F227" s="26">
+      <c r="G340" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="H340" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I340" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A341" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B341" s="30">
+        <v>9.6950000000000003</v>
+      </c>
+      <c r="C341" s="30">
+        <v>124.405</v>
+      </c>
+      <c r="D341" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="E341" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="F341" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G341" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="H341" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I341" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A342" s="29" t="s">
+        <v>748</v>
+      </c>
+      <c r="B342" s="30">
+        <v>9.6450899999999997</v>
+      </c>
+      <c r="C342" s="30">
+        <v>124.36687000000001</v>
+      </c>
+      <c r="D342" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="E342" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G342" s="2">
+        <v>5.8074000000000003</v>
+      </c>
+      <c r="H342" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I342" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A343" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="B343" s="30">
+        <v>9.5968</v>
+      </c>
+      <c r="C343" s="30">
+        <v>124.11776999999999</v>
+      </c>
+      <c r="D343" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E343" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F343" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G343" s="2">
+        <v>1</v>
+      </c>
+      <c r="H343" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I343" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A344" s="29" t="s">
+        <v>752</v>
+      </c>
+      <c r="B344" s="30">
+        <v>9.6530299999999993</v>
+      </c>
+      <c r="C344" s="30">
+        <v>124.39093</v>
+      </c>
+      <c r="D344" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E344" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="F344" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G344" s="2">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="H344" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I344" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A345" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="B345" s="30">
+        <v>9.6531099999999999</v>
+      </c>
+      <c r="C345" s="30">
+        <v>124.38500000000001</v>
+      </c>
+      <c r="D345" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="E345" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="F345" s="5">
         <v>2001</v>
       </c>
-      <c r="G227" s="26">
-        <v>26.7</v>
-      </c>
-      <c r="H227" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A228" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26">
-        <v>1989</v>
-      </c>
-      <c r="G228" s="26">
-        <v>26.5</v>
-      </c>
-      <c r="H228" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A229" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26">
-        <v>2001</v>
-      </c>
-      <c r="G229" s="26">
-        <v>26.22</v>
-      </c>
-      <c r="H229" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A230" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26">
-        <v>1993</v>
-      </c>
-      <c r="G230" s="26">
-        <v>25</v>
-      </c>
-      <c r="H230" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A231" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="26">
-        <v>1993</v>
-      </c>
-      <c r="G231" s="26">
-        <v>25</v>
-      </c>
-      <c r="H231" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A232" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G232" s="26">
-        <v>24.86</v>
-      </c>
-      <c r="H232" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A233" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-      <c r="F233" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G233" s="26">
-        <v>24</v>
-      </c>
-      <c r="H233" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A234" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D234" s="26"/>
-      <c r="F234" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G234" s="26">
-        <v>23.61</v>
-      </c>
-      <c r="H234" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A235" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
-      <c r="F235" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G235" s="26">
-        <v>22.22</v>
-      </c>
-      <c r="H235" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A236" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
-      <c r="F236" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G236" s="26">
-        <v>22.2</v>
-      </c>
-      <c r="H236" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A237" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
-      <c r="F237" s="26">
-        <v>1996</v>
-      </c>
-      <c r="G237" s="26">
-        <v>22</v>
-      </c>
-      <c r="H237" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A238" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
-      <c r="F238" s="26">
+      <c r="G345" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H345" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I345" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A346" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="B346" s="30">
+        <v>9.6079000000000008</v>
+      </c>
+      <c r="C346" s="30">
+        <v>124.17740000000001</v>
+      </c>
+      <c r="D346" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="E346" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F346" s="5">
         <v>1999</v>
       </c>
-      <c r="G238" s="26">
-        <v>21.79</v>
-      </c>
-      <c r="H238" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A239" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G239" s="26">
-        <v>21.7</v>
-      </c>
-      <c r="H239" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A240" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
-      <c r="F240" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G240" s="26">
-        <v>21.56</v>
-      </c>
-      <c r="H240" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A241" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-      <c r="F241" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G241" s="26">
-        <v>21</v>
-      </c>
-      <c r="H241" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A242" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-      <c r="F242" s="26">
-        <v>2016</v>
-      </c>
-      <c r="G242" s="26">
-        <v>20.6</v>
-      </c>
-      <c r="H242" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A243" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-      <c r="F243" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G243" s="26">
-        <v>20</v>
-      </c>
-      <c r="H243" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A244" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
-      <c r="F244" s="26">
-        <v>1994</v>
-      </c>
-      <c r="G244" s="26">
-        <v>20</v>
-      </c>
-      <c r="H244" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A245" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G245" s="26">
-        <v>20</v>
-      </c>
-      <c r="H245" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A246" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G246" s="26">
-        <v>20</v>
-      </c>
-      <c r="H246" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A247" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G247" s="26">
-        <v>20</v>
-      </c>
-      <c r="H247" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A248" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26">
-        <v>2004</v>
-      </c>
-      <c r="G248" s="26">
-        <v>20</v>
-      </c>
-      <c r="H248" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A249" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="D249" s="26"/>
-      <c r="F249" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G249" s="26">
-        <v>20</v>
-      </c>
-      <c r="H249" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A250" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-      <c r="F250" s="26">
-        <v>1996</v>
-      </c>
-      <c r="G250" s="26">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="H250" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A251" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-      <c r="F251" s="26">
-        <v>2005</v>
-      </c>
-      <c r="G251" s="26">
-        <v>19</v>
-      </c>
-      <c r="H251" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A252" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
-      <c r="F252" s="26">
-        <v>0</v>
-      </c>
-      <c r="G252" s="26">
-        <v>19</v>
-      </c>
-      <c r="H252" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A253" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-      <c r="F253" s="26">
-        <v>0</v>
-      </c>
-      <c r="G253" s="26">
-        <v>19</v>
-      </c>
-      <c r="H253" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A254" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-      <c r="F254" s="26">
-        <v>2005</v>
-      </c>
-      <c r="G254" s="26">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H254" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A255" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
-      <c r="F255" s="26">
-        <v>1996</v>
-      </c>
-      <c r="G255" s="26">
-        <v>18.62</v>
-      </c>
-      <c r="H255" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A256" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-      <c r="F256" s="26">
-        <v>2001</v>
-      </c>
-      <c r="G256" s="26">
-        <v>18.55</v>
-      </c>
-      <c r="H256" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A257" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
-      <c r="F257" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G257" s="26">
-        <v>18.04</v>
-      </c>
-      <c r="H257" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A258" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
-      <c r="F258" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G258" s="26">
-        <v>18</v>
-      </c>
-      <c r="H258" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A259" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="26">
-        <v>2001</v>
-      </c>
-      <c r="G259" s="26">
-        <v>18</v>
-      </c>
-      <c r="H259" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A260" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-      <c r="F260" s="26">
-        <v>1995</v>
-      </c>
-      <c r="G260" s="26">
-        <v>17.45</v>
-      </c>
-      <c r="H260" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A261" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-      <c r="F261" s="26">
-        <v>2007</v>
-      </c>
-      <c r="G261" s="26">
-        <v>17.39</v>
-      </c>
-      <c r="H261" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A262" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-      <c r="F262" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G262" s="26">
-        <v>16.21</v>
-      </c>
-      <c r="H262" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A263" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-      <c r="F263" s="26">
-        <v>0</v>
-      </c>
-      <c r="G263" s="26">
-        <v>16</v>
-      </c>
-      <c r="H263" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A264" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="D264" s="26"/>
-      <c r="F264" s="26">
-        <v>0</v>
-      </c>
-      <c r="G264" s="26">
-        <v>16</v>
-      </c>
-      <c r="H264" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A265" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="26">
-        <v>1999</v>
-      </c>
-      <c r="G265" s="26">
-        <v>15.99</v>
-      </c>
-      <c r="H265" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A266" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G266" s="26">
-        <v>15.83</v>
-      </c>
-      <c r="H266" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A267" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G267" s="26">
-        <v>15.62</v>
-      </c>
-      <c r="H267" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A268" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D268" s="26"/>
-      <c r="E268" s="26"/>
-      <c r="F268" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G268" s="26">
-        <v>15.52</v>
-      </c>
-      <c r="H268" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A269" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26">
-        <v>2001</v>
-      </c>
-      <c r="G269" s="26">
-        <v>15.45</v>
-      </c>
-      <c r="H269" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A270" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="D270" s="26"/>
-      <c r="E270" s="26"/>
-      <c r="F270" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G270" s="26">
-        <v>15</v>
-      </c>
-      <c r="H270" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A271" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-      <c r="F271" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G271" s="26">
-        <v>15</v>
-      </c>
-      <c r="H271" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A272" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G272" s="26">
-        <v>15</v>
-      </c>
-      <c r="H272" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A273" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
-      <c r="F273" s="26">
-        <v>1999</v>
-      </c>
-      <c r="G273" s="26">
-        <v>14.25</v>
-      </c>
-      <c r="H273" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A274" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D274" s="26"/>
-      <c r="E274" s="26"/>
-      <c r="F274" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G274" s="26">
-        <v>14.14</v>
-      </c>
-      <c r="H274" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A275" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
-      <c r="F275" s="26">
-        <v>1999</v>
-      </c>
-      <c r="G275" s="26">
-        <v>14.1</v>
-      </c>
-      <c r="H275" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A276" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="D276" s="26"/>
-      <c r="E276" s="26"/>
-      <c r="F276" s="26">
-        <v>2002</v>
-      </c>
-      <c r="G276" s="26">
-        <v>13.7</v>
-      </c>
-      <c r="H276" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A277" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D277" s="26"/>
-      <c r="E277" s="26"/>
-      <c r="F277" s="26">
-        <v>2000</v>
-      </c>
-      <c r="G277" s="26">
-        <v>13.42</v>
-      </c>
-      <c r="H277" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A278" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" s="26">
-        <v>2006</v>
-      </c>
-      <c r="G278" s="26">
-        <v>13.3</v>
-      </c>
-      <c r="H278" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A279" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D279" s="26"/>
-      <c r="F279" s="26">
-        <v>2001</v>
-      </c>
-      <c r="G279" s="26">
-        <v>13</v>
-      </c>
-      <c r="H279" t="s">
-        <v>416</v>
+      <c r="G346" s="2">
+        <v>26.596699999999998</v>
+      </c>
+      <c r="H346" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I346" s="30" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/MPA_coordinates_no_deg_updated.xlsx
+++ b/data/MPA_coordinates_no_deg_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9FC4A-8BA0-4216-BAB4-4FD85240D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CC323-91CD-47B7-86C3-342183999D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8" yWindow="0" windowWidth="11041" windowHeight="14925" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="14925" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CE$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="774">
   <si>
     <t>Name</t>
   </si>
@@ -2431,6 +2430,12 @@
   </si>
   <si>
     <t>Panglao, Bohol</t>
+  </si>
+  <si>
+    <t>Coral reef, rocky</t>
+  </si>
+  <si>
+    <t>Inabanga, Bohol</t>
   </si>
 </sst>
 </file>
@@ -2917,9 +2922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
   <dimension ref="A1:CE346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10881,10 +10886,18 @@
       <c r="A285" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
-      <c r="D285" s="29"/>
-      <c r="E285" s="29"/>
+      <c r="B285">
+        <v>10.113014</v>
+      </c>
+      <c r="C285">
+        <v>123.98393900000001</v>
+      </c>
+      <c r="D285" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="E285" s="29" t="s">
+        <v>772</v>
+      </c>
       <c r="F285" s="29">
         <v>1999</v>
       </c>
@@ -10894,7 +10907,9 @@
       <c r="H285" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="I285" s="30"/>
+      <c r="I285" s="29" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A286" s="29" t="s">

--- a/data/MPA_coordinates_no_deg_updated.xlsx
+++ b/data/MPA_coordinates_no_deg_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AF2A5A-8F0E-4E67-9497-601A1B5A6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429A4B46-3C6C-45A8-8A72-8B8E60413FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="15000" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
+    <workbookView xWindow="11048" yWindow="23" windowWidth="11475" windowHeight="15000" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rebecca Ruiz:</t>
         </r>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10.00000 deg N</t>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rebecca Ruiz:</t>
         </r>
@@ -102,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Visayas MPA directory says 134.26880. Unlikely as all stations before and after are 124.______...</t>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="780">
   <si>
     <t>Name</t>
   </si>
@@ -2444,7 +2444,16 @@
     <t>Make name key with synonyms for full names of MPAs?</t>
   </si>
   <si>
-    <t>Make key with all MPA full names and synonyms?</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Balabag Marine Reserve</t>
+  </si>
+  <si>
+    <t>Balabag, Cagayancillo, Palawan</t>
+  </si>
+  <si>
+    <t>Coastal Conservation and Education Foundation (old.coast.ph) and ctatlas.coraltriangleinitiative.org</t>
   </si>
 </sst>
 </file>
@@ -2463,14 +2472,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2917,11 +2926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
-  <dimension ref="A1:CE346"/>
+  <dimension ref="A1:CE347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2936,7 +2945,7 @@
     <col min="10" max="10" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +3006,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3025,11 +3034,8 @@
       <c r="I3" t="s">
         <v>305</v>
       </c>
-      <c r="K3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -12286,7 +12292,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A337" s="22" t="s">
         <v>731</v>
       </c>
@@ -12315,7 +12321,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="22" t="s">
         <v>737</v>
       </c>
@@ -12344,7 +12350,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="22" t="s">
         <v>740</v>
       </c>
@@ -12373,7 +12379,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="22" t="s">
         <v>742</v>
       </c>
@@ -12402,7 +12408,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="22" t="s">
         <v>743</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="22" t="s">
         <v>748</v>
       </c>
@@ -12460,7 +12466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="22" t="s">
         <v>750</v>
       </c>
@@ -12489,7 +12495,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="22" t="s">
         <v>752</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="22" t="s">
         <v>755</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="22" t="s">
         <v>760</v>
       </c>
@@ -12574,6 +12580,38 @@
       </c>
       <c r="I346" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A347" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="B347">
+        <v>9.5688580000000005</v>
+      </c>
+      <c r="C347">
+        <v>121.209</v>
+      </c>
+      <c r="D347" t="s">
+        <v>778</v>
+      </c>
+      <c r="E347" t="s">
+        <v>776</v>
+      </c>
+      <c r="F347" s="4">
+        <v>2003</v>
+      </c>
+      <c r="G347" s="1">
+        <v>15.26</v>
+      </c>
+      <c r="H347" t="s">
+        <v>519</v>
+      </c>
+      <c r="I347" t="s">
+        <v>305</v>
+      </c>
+      <c r="J347" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
